--- a/Excel/NPC.xlsx
+++ b/Excel/NPC.xlsx
@@ -1,107 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500"/>
+    <workbookView windowWidth="22428" windowHeight="10152" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="npc_config" sheetId="1" r:id="rId1"/>
+    <sheet name="NPCConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>john</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iuisf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fucker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb 23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gb23r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>int/id/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string/name/名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string/describe/描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌瑟尔</t>
+  </si>
+  <si>
+    <t>最屌的圣骑士</t>
+  </si>
+  <si>
+    <t>伊利丹</t>
+  </si>
+  <si>
+    <t>背叛者</t>
+  </si>
+  <si>
+    <t>盲僧</t>
+  </si>
+  <si>
+    <t>瞎子</t>
+  </si>
+  <si>
+    <t>萨尔</t>
+  </si>
+  <si>
+    <t>部落的首领</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,32 +103,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,79 +186,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -288,16 +290,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -382,8 +388,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -421,67 +427,77 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="A3C2FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
       <a:bodyPr/>
       <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
     </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -489,10 +505,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,20 +538,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>